--- a/medicine/Mort/Grand_cimetière_de_Riga/Grand_cimetière_de_Riga.xlsx
+++ b/medicine/Mort/Grand_cimetière_de_Riga/Grand_cimetière_de_Riga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_cimeti%C3%A8re_de_Riga</t>
+          <t>Grand_cimetière_de_Riga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand cimetière de Riga (en letton: Lielie kapi, en allemand : Großer Friedhof) est un cimetière fondé en 1773 pour les germano-baltes de Riga, alors en Livonie, aujourd'hui en Lettonie. Ses vingt-deux hectares appartiennent aujourd'hui à l'Église évangélique-luthérienne de Lettonie.
 La plupart des germano-baltes de Riga y sont enterrés entre 1773 et 1944, mais la population d'origine allemande étant massivement transférée en 1939 hors de Lettonie, les inhumations diminuent d'autant. Le cimetière est presque laissé à l'abandon à l'époque de la république socialiste soviétique de Lettonie. Il ferme en 1957 et la majorité des tombes sont détruites pour faire un grand parc de promenade en 1969.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_cimeti%C3%A8re_de_Riga</t>
+          <t>Grand_cimetière_de_Riga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>George Armitstead (1847-1912), maire de Riga entre 1901 et 1912
 Krišjānis Barons (1835–1923) écrivain et folkloriste letton, surnommé le "Père des dainas"
